--- a/excel/finished/烧结/6#脱硫脱硝工艺参数采集.xlsx
+++ b/excel/finished/烧结/6#脱硫脱硝工艺参数采集.xlsx
@@ -2085,30 +2085,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2134,50 +2118,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,6 +2154,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2199,9 +2176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2209,7 +2185,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2217,6 +2208,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2231,54 +2245,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2313,7 +2290,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2325,7 +2344,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,13 +2452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,145 +2470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2643,6 +2620,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2662,15 +2687,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2700,45 +2716,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2747,10 +2724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2759,137 +2736,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2950,19 +2927,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3325,7 +3299,7 @@
   <dimension ref="A1:EE30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:EE26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3492,7 +3466,7 @@
       <c r="EB1" s="20"/>
       <c r="EC1" s="20"/>
       <c r="ED1" s="20"/>
-      <c r="EE1" s="23"/>
+      <c r="EE1" s="22"/>
     </row>
     <row r="2" s="6" customFormat="1" ht="18.75" spans="1:135">
       <c r="A2" s="12"/>
@@ -3643,7 +3617,7 @@
       <c r="EB2" s="21"/>
       <c r="EC2" s="21"/>
       <c r="ED2" s="21"/>
-      <c r="EE2" s="24"/>
+      <c r="EE2" s="23"/>
     </row>
     <row r="3" s="7" customFormat="1" ht="60.75" customHeight="1" spans="1:135">
       <c r="A3" s="12"/>
@@ -3817,7 +3791,7 @@
       <c r="BI3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BJ3" s="22" t="s">
+      <c r="BJ3" s="19" t="s">
         <v>68</v>
       </c>
       <c r="BK3" s="19" t="s">
@@ -4036,7 +4010,7 @@
       <c r="ED3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="EE3" s="25" t="s">
+      <c r="EE3" s="24" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4576,7 +4550,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC2="","",_6tuoliutuoxiao_day_hour!EC2)</f>
         <v/>
       </c>
-      <c r="EE4" s="26" t="str">
+      <c r="EE4" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED2="","",_6tuoliutuoxiao_day_hour!ED2)</f>
         <v/>
       </c>
@@ -5117,7 +5091,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC3="","",_6tuoliutuoxiao_day_hour!EC3)</f>
         <v/>
       </c>
-      <c r="EE5" s="26" t="str">
+      <c r="EE5" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED3="","",_6tuoliutuoxiao_day_hour!ED3)</f>
         <v/>
       </c>
@@ -5658,7 +5632,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC4="","",_6tuoliutuoxiao_day_hour!EC4)</f>
         <v/>
       </c>
-      <c r="EE6" s="26" t="str">
+      <c r="EE6" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED4="","",_6tuoliutuoxiao_day_hour!ED4)</f>
         <v/>
       </c>
@@ -6199,7 +6173,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC5="","",_6tuoliutuoxiao_day_hour!EC5)</f>
         <v/>
       </c>
-      <c r="EE7" s="26" t="str">
+      <c r="EE7" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED5="","",_6tuoliutuoxiao_day_hour!ED5)</f>
         <v/>
       </c>
@@ -6740,7 +6714,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC6="","",_6tuoliutuoxiao_day_hour!EC6)</f>
         <v/>
       </c>
-      <c r="EE8" s="26" t="str">
+      <c r="EE8" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED6="","",_6tuoliutuoxiao_day_hour!ED6)</f>
         <v/>
       </c>
@@ -7281,7 +7255,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC7="","",_6tuoliutuoxiao_day_hour!EC7)</f>
         <v/>
       </c>
-      <c r="EE9" s="26" t="str">
+      <c r="EE9" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED7="","",_6tuoliutuoxiao_day_hour!ED7)</f>
         <v/>
       </c>
@@ -7822,7 +7796,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC8="","",_6tuoliutuoxiao_day_hour!EC8)</f>
         <v/>
       </c>
-      <c r="EE10" s="26" t="str">
+      <c r="EE10" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED8="","",_6tuoliutuoxiao_day_hour!ED8)</f>
         <v/>
       </c>
@@ -8363,7 +8337,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC9="","",_6tuoliutuoxiao_day_hour!EC9)</f>
         <v/>
       </c>
-      <c r="EE11" s="26" t="str">
+      <c r="EE11" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED9="","",_6tuoliutuoxiao_day_hour!ED9)</f>
         <v/>
       </c>
@@ -8904,7 +8878,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC10="","",_6tuoliutuoxiao_day_hour!EC10)</f>
         <v/>
       </c>
-      <c r="EE12" s="26" t="str">
+      <c r="EE12" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED10="","",_6tuoliutuoxiao_day_hour!ED10)</f>
         <v/>
       </c>
@@ -9445,7 +9419,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC11="","",_6tuoliutuoxiao_day_hour!EC11)</f>
         <v/>
       </c>
-      <c r="EE13" s="26" t="str">
+      <c r="EE13" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED11="","",_6tuoliutuoxiao_day_hour!ED11)</f>
         <v/>
       </c>
@@ -9986,7 +9960,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC12="","",_6tuoliutuoxiao_day_hour!EC12)</f>
         <v/>
       </c>
-      <c r="EE14" s="26" t="str">
+      <c r="EE14" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED12="","",_6tuoliutuoxiao_day_hour!ED12)</f>
         <v/>
       </c>
@@ -10527,7 +10501,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC13="","",_6tuoliutuoxiao_day_hour!EC13)</f>
         <v/>
       </c>
-      <c r="EE15" s="26" t="str">
+      <c r="EE15" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED13="","",_6tuoliutuoxiao_day_hour!ED13)</f>
         <v/>
       </c>
@@ -11068,7 +11042,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC14="","",_6tuoliutuoxiao_day_hour!EC14)</f>
         <v/>
       </c>
-      <c r="EE16" s="26" t="str">
+      <c r="EE16" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED14="","",_6tuoliutuoxiao_day_hour!ED14)</f>
         <v/>
       </c>
@@ -11609,7 +11583,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC15="","",_6tuoliutuoxiao_day_hour!EC15)</f>
         <v/>
       </c>
-      <c r="EE17" s="26" t="str">
+      <c r="EE17" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED15="","",_6tuoliutuoxiao_day_hour!ED15)</f>
         <v/>
       </c>
@@ -12150,7 +12124,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC16="","",_6tuoliutuoxiao_day_hour!EC16)</f>
         <v/>
       </c>
-      <c r="EE18" s="26" t="str">
+      <c r="EE18" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED16="","",_6tuoliutuoxiao_day_hour!ED16)</f>
         <v/>
       </c>
@@ -12691,7 +12665,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC17="","",_6tuoliutuoxiao_day_hour!EC17)</f>
         <v/>
       </c>
-      <c r="EE19" s="26" t="str">
+      <c r="EE19" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED17="","",_6tuoliutuoxiao_day_hour!ED17)</f>
         <v/>
       </c>
@@ -13232,7 +13206,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC18="","",_6tuoliutuoxiao_day_hour!EC18)</f>
         <v/>
       </c>
-      <c r="EE20" s="26" t="str">
+      <c r="EE20" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED18="","",_6tuoliutuoxiao_day_hour!ED18)</f>
         <v/>
       </c>
@@ -13773,7 +13747,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC19="","",_6tuoliutuoxiao_day_hour!EC19)</f>
         <v/>
       </c>
-      <c r="EE21" s="26" t="str">
+      <c r="EE21" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED19="","",_6tuoliutuoxiao_day_hour!ED19)</f>
         <v/>
       </c>
@@ -14314,7 +14288,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC20="","",_6tuoliutuoxiao_day_hour!EC20)</f>
         <v/>
       </c>
-      <c r="EE22" s="26" t="str">
+      <c r="EE22" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED20="","",_6tuoliutuoxiao_day_hour!ED20)</f>
         <v/>
       </c>
@@ -14855,7 +14829,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC21="","",_6tuoliutuoxiao_day_hour!EC21)</f>
         <v/>
       </c>
-      <c r="EE23" s="26" t="str">
+      <c r="EE23" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED21="","",_6tuoliutuoxiao_day_hour!ED21)</f>
         <v/>
       </c>
@@ -15396,7 +15370,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC22="","",_6tuoliutuoxiao_day_hour!EC22)</f>
         <v/>
       </c>
-      <c r="EE24" s="26" t="str">
+      <c r="EE24" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED22="","",_6tuoliutuoxiao_day_hour!ED22)</f>
         <v/>
       </c>
@@ -15937,7 +15911,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC23="","",_6tuoliutuoxiao_day_hour!EC23)</f>
         <v/>
       </c>
-      <c r="EE25" s="26" t="str">
+      <c r="EE25" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED23="","",_6tuoliutuoxiao_day_hour!ED23)</f>
         <v/>
       </c>
@@ -16478,7 +16452,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!EC24="","",_6tuoliutuoxiao_day_hour!EC24)</f>
         <v/>
       </c>
-      <c r="EE26" s="26" t="str">
+      <c r="EE26" s="25" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!ED24="","",_6tuoliutuoxiao_day_hour!ED24)</f>
         <v/>
       </c>
@@ -16620,7 +16594,7 @@
       <c r="EB27" s="16"/>
       <c r="EC27" s="16"/>
       <c r="ED27" s="16"/>
-      <c r="EE27" s="26"/>
+      <c r="EE27" s="25"/>
     </row>
     <row r="28" spans="1:135">
       <c r="A28" s="12" t="s">
@@ -16759,7 +16733,7 @@
       <c r="EB28" s="16"/>
       <c r="EC28" s="16"/>
       <c r="ED28" s="16"/>
-      <c r="EE28" s="26"/>
+      <c r="EE28" s="25"/>
     </row>
     <row r="29" spans="1:135">
       <c r="A29" s="12" t="s">
@@ -16898,7 +16872,7 @@
       <c r="EB29" s="16"/>
       <c r="EC29" s="16"/>
       <c r="ED29" s="16"/>
-      <c r="EE29" s="26"/>
+      <c r="EE29" s="25"/>
     </row>
     <row r="30" ht="14.25" spans="1:135">
       <c r="A30" s="17" t="s">
@@ -17037,7 +17011,7 @@
       <c r="EB30" s="18"/>
       <c r="EC30" s="18"/>
       <c r="ED30" s="18"/>
-      <c r="EE30" s="27"/>
+      <c r="EE30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/excel/finished/烧结/6#脱硫脱硝工艺参数采集.xlsx
+++ b/excel/finished/烧结/6#脱硫脱硝工艺参数采集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="295">
   <si>
     <t>时间</t>
   </si>
@@ -2272,8 +2272,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2303,7 +2303,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2311,7 +2340,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2333,15 +2392,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2356,38 +2424,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2400,49 +2438,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2462,7 +2462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,19 +2483,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,7 +2543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,67 +2561,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2609,19 +2615,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,37 +2657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,28 +2855,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2884,21 +2873,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2908,11 +2882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2946,6 +2926,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2954,10 +2960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2966,137 +2972,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3118,41 +3124,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3163,31 +3172,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3547,19 +3556,13 @@
   <dimension ref="A1:EI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="6" width="9" style="3" customWidth="1"/>
-    <col min="7" max="30" width="9.625" style="3" customWidth="1"/>
-    <col min="31" max="33" width="15.625" style="3" customWidth="1"/>
-    <col min="34" max="61" width="9" style="3" customWidth="1"/>
-    <col min="62" max="62" width="12.375" style="3" customWidth="1"/>
-    <col min="63" max="109" width="10.625" style="3" customWidth="1"/>
-    <col min="110" max="139" width="9" style="3"/>
+    <col min="2" max="139" width="9.00833333333333" style="3" customWidth="1"/>
     <col min="140" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -3640,85 +3643,85 @@
       <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
       <c r="BJ1" s="12"/>
-      <c r="BK1" s="26" t="s">
+      <c r="BK1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26"/>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26"/>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26"/>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26"/>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
-      <c r="CI1" s="26"/>
-      <c r="CJ1" s="26"/>
-      <c r="CK1" s="26"/>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="26"/>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26"/>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
-      <c r="CW1" s="26"/>
-      <c r="CX1" s="26"/>
-      <c r="CY1" s="26"/>
-      <c r="CZ1" s="26"/>
-      <c r="DA1" s="26"/>
-      <c r="DB1" s="26"/>
-      <c r="DC1" s="26"/>
-      <c r="DD1" s="26"/>
-      <c r="DE1" s="26"/>
-      <c r="DF1" s="26"/>
-      <c r="DG1" s="26"/>
-      <c r="DH1" s="26"/>
-      <c r="DI1" s="26"/>
-      <c r="DJ1" s="26"/>
-      <c r="DK1" s="26"/>
-      <c r="DL1" s="26"/>
-      <c r="DM1" s="26"/>
-      <c r="DN1" s="26"/>
-      <c r="DO1" s="26"/>
-      <c r="DP1" s="26"/>
-      <c r="DQ1" s="26"/>
-      <c r="DR1" s="26"/>
-      <c r="DS1" s="26"/>
-      <c r="DT1" s="26"/>
-      <c r="DU1" s="26"/>
-      <c r="DV1" s="26"/>
-      <c r="DW1" s="26"/>
-      <c r="DX1" s="26"/>
-      <c r="DY1" s="26"/>
-      <c r="DZ1" s="26"/>
-      <c r="EA1" s="26"/>
-      <c r="EB1" s="26"/>
-      <c r="EC1" s="26"/>
-      <c r="ED1" s="26"/>
-      <c r="EE1" s="26"/>
-      <c r="EF1" s="26"/>
-      <c r="EG1" s="26"/>
-      <c r="EH1" s="26"/>
-      <c r="EI1" s="28"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27"/>
+      <c r="CA1" s="27"/>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27"/>
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
+      <c r="CH1" s="27"/>
+      <c r="CI1" s="27"/>
+      <c r="CJ1" s="27"/>
+      <c r="CK1" s="27"/>
+      <c r="CL1" s="27"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="27"/>
+      <c r="CP1" s="27"/>
+      <c r="CQ1" s="27"/>
+      <c r="CR1" s="27"/>
+      <c r="CS1" s="27"/>
+      <c r="CT1" s="27"/>
+      <c r="CU1" s="27"/>
+      <c r="CV1" s="27"/>
+      <c r="CW1" s="27"/>
+      <c r="CX1" s="27"/>
+      <c r="CY1" s="27"/>
+      <c r="CZ1" s="27"/>
+      <c r="DA1" s="27"/>
+      <c r="DB1" s="27"/>
+      <c r="DC1" s="27"/>
+      <c r="DD1" s="27"/>
+      <c r="DE1" s="27"/>
+      <c r="DF1" s="27"/>
+      <c r="DG1" s="27"/>
+      <c r="DH1" s="27"/>
+      <c r="DI1" s="27"/>
+      <c r="DJ1" s="27"/>
+      <c r="DK1" s="27"/>
+      <c r="DL1" s="27"/>
+      <c r="DM1" s="27"/>
+      <c r="DN1" s="27"/>
+      <c r="DO1" s="27"/>
+      <c r="DP1" s="27"/>
+      <c r="DQ1" s="27"/>
+      <c r="DR1" s="27"/>
+      <c r="DS1" s="27"/>
+      <c r="DT1" s="27"/>
+      <c r="DU1" s="27"/>
+      <c r="DV1" s="27"/>
+      <c r="DW1" s="27"/>
+      <c r="DX1" s="27"/>
+      <c r="DY1" s="27"/>
+      <c r="DZ1" s="27"/>
+      <c r="EA1" s="27"/>
+      <c r="EB1" s="27"/>
+      <c r="EC1" s="27"/>
+      <c r="ED1" s="27"/>
+      <c r="EE1" s="27"/>
+      <c r="EF1" s="27"/>
+      <c r="EG1" s="27"/>
+      <c r="EH1" s="27"/>
+      <c r="EI1" s="29"/>
     </row>
     <row r="2" s="7" customFormat="1" ht="18.75" spans="1:139">
       <c r="A2" s="13"/>
@@ -3791,89 +3794,89 @@
       <c r="BH2" s="15"/>
       <c r="BI2" s="15"/>
       <c r="BJ2" s="15"/>
-      <c r="BK2" s="27" t="s">
+      <c r="BK2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="27"/>
-      <c r="BW2" s="27"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27"/>
-      <c r="CE2" s="27" t="s">
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="27"/>
-      <c r="CI2" s="27"/>
-      <c r="CJ2" s="27"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="27"/>
-      <c r="CN2" s="27"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="27"/>
-      <c r="CQ2" s="27"/>
-      <c r="CR2" s="27"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="27"/>
-      <c r="CU2" s="27"/>
-      <c r="CV2" s="27"/>
-      <c r="CW2" s="27"/>
-      <c r="CX2" s="27"/>
-      <c r="CY2" s="27" t="s">
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
+      <c r="CU2" s="28"/>
+      <c r="CV2" s="28"/>
+      <c r="CW2" s="28"/>
+      <c r="CX2" s="28"/>
+      <c r="CY2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="CZ2" s="27"/>
-      <c r="DA2" s="27"/>
-      <c r="DB2" s="27"/>
-      <c r="DC2" s="27"/>
-      <c r="DD2" s="27"/>
-      <c r="DE2" s="27"/>
-      <c r="DF2" s="27"/>
-      <c r="DG2" s="27"/>
-      <c r="DH2" s="27"/>
-      <c r="DI2" s="27"/>
-      <c r="DJ2" s="27"/>
-      <c r="DK2" s="27"/>
-      <c r="DL2" s="27"/>
-      <c r="DM2" s="27"/>
-      <c r="DN2" s="27"/>
-      <c r="DO2" s="27"/>
-      <c r="DP2" s="27"/>
-      <c r="DQ2" s="27"/>
-      <c r="DR2" s="27"/>
-      <c r="DS2" s="27"/>
-      <c r="DT2" s="27"/>
-      <c r="DU2" s="27"/>
-      <c r="DV2" s="27"/>
-      <c r="DW2" s="27"/>
-      <c r="DX2" s="27"/>
-      <c r="DY2" s="27"/>
-      <c r="DZ2" s="27"/>
-      <c r="EA2" s="27"/>
-      <c r="EB2" s="27"/>
-      <c r="EC2" s="27"/>
-      <c r="ED2" s="27"/>
-      <c r="EE2" s="27"/>
-      <c r="EF2" s="27"/>
-      <c r="EG2" s="27"/>
-      <c r="EH2" s="27"/>
-      <c r="EI2" s="29"/>
+      <c r="CZ2" s="28"/>
+      <c r="DA2" s="28"/>
+      <c r="DB2" s="28"/>
+      <c r="DC2" s="28"/>
+      <c r="DD2" s="28"/>
+      <c r="DE2" s="28"/>
+      <c r="DF2" s="28"/>
+      <c r="DG2" s="28"/>
+      <c r="DH2" s="28"/>
+      <c r="DI2" s="28"/>
+      <c r="DJ2" s="28"/>
+      <c r="DK2" s="28"/>
+      <c r="DL2" s="28"/>
+      <c r="DM2" s="28"/>
+      <c r="DN2" s="28"/>
+      <c r="DO2" s="28"/>
+      <c r="DP2" s="28"/>
+      <c r="DQ2" s="28"/>
+      <c r="DR2" s="28"/>
+      <c r="DS2" s="28"/>
+      <c r="DT2" s="28"/>
+      <c r="DU2" s="28"/>
+      <c r="DV2" s="28"/>
+      <c r="DW2" s="28"/>
+      <c r="DX2" s="28"/>
+      <c r="DY2" s="28"/>
+      <c r="DZ2" s="28"/>
+      <c r="EA2" s="28"/>
+      <c r="EB2" s="28"/>
+      <c r="EC2" s="28"/>
+      <c r="ED2" s="28"/>
+      <c r="EE2" s="28"/>
+      <c r="EF2" s="28"/>
+      <c r="EG2" s="28"/>
+      <c r="EH2" s="28"/>
+      <c r="EI2" s="30"/>
     </row>
     <row r="3" s="8" customFormat="1" ht="60.75" customHeight="1" spans="1:139">
       <c r="A3" s="13"/>
@@ -3900,10 +3903,10 @@
       <c r="L3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="14" t="s">
@@ -3924,7 +3927,7 @@
       <c r="T3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -3984,16 +3987,16 @@
       <c r="AN3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AO3" s="22" t="s">
+      <c r="AO3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AP3" s="22" t="s">
+      <c r="AP3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="22" t="s">
+      <c r="AQ3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="22" t="s">
+      <c r="AR3" s="23" t="s">
         <v>50</v>
       </c>
       <c r="AS3" s="14" t="s">
@@ -4014,22 +4017,22 @@
       <c r="AX3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AY3" s="23" t="s">
+      <c r="AY3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="25" t="s">
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="25" t="s">
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="25" t="s">
+      <c r="BD3" s="25"/>
+      <c r="BE3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="BF3" s="24"/>
+      <c r="BF3" s="25"/>
       <c r="BG3" s="14" t="s">
         <v>61</v>
       </c>
@@ -4051,10 +4054,10 @@
       <c r="BM3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="BN3" s="22" t="s">
+      <c r="BN3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="BO3" s="22" t="s">
+      <c r="BO3" s="23" t="s">
         <v>69</v>
       </c>
       <c r="BP3" s="14" t="s">
@@ -4066,10 +4069,10 @@
       <c r="BR3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BS3" s="22" t="s">
+      <c r="BS3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BT3" s="22" t="s">
+      <c r="BT3" s="23" t="s">
         <v>74</v>
       </c>
       <c r="BU3" s="14" t="s">
@@ -4081,10 +4084,10 @@
       <c r="BW3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="BX3" s="22" t="s">
+      <c r="BX3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="BY3" s="22" t="s">
+      <c r="BY3" s="23" t="s">
         <v>79</v>
       </c>
       <c r="BZ3" s="14" t="s">
@@ -4096,10 +4099,10 @@
       <c r="CB3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="CC3" s="22" t="s">
+      <c r="CC3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="CD3" s="22" t="s">
+      <c r="CD3" s="23" t="s">
         <v>84</v>
       </c>
       <c r="CE3" s="14" t="s">
@@ -4111,10 +4114,10 @@
       <c r="CG3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="CH3" s="22" t="s">
+      <c r="CH3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="CI3" s="22" t="s">
+      <c r="CI3" s="23" t="s">
         <v>89</v>
       </c>
       <c r="CJ3" s="14" t="s">
@@ -4126,10 +4129,10 @@
       <c r="CL3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="CM3" s="22" t="s">
+      <c r="CM3" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="CN3" s="22" t="s">
+      <c r="CN3" s="23" t="s">
         <v>94</v>
       </c>
       <c r="CO3" s="14" t="s">
@@ -4141,10 +4144,10 @@
       <c r="CQ3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="CR3" s="22" t="s">
+      <c r="CR3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="CS3" s="22" t="s">
+      <c r="CS3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="CT3" s="14" t="s">
@@ -4156,31 +4159,31 @@
       <c r="CV3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="CW3" s="22" t="s">
+      <c r="CW3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="CX3" s="22" t="s">
+      <c r="CX3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="CY3" s="22" t="s">
+      <c r="CY3" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="CZ3" s="22" t="s">
+      <c r="CZ3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="DA3" s="22" t="s">
+      <c r="DA3" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="DB3" s="22" t="s">
+      <c r="DB3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="DC3" s="22" t="s">
+      <c r="DC3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="DD3" s="22" t="s">
+      <c r="DD3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="DE3" s="22" t="s">
+      <c r="DE3" s="23" t="s">
         <v>111</v>
       </c>
       <c r="DF3" s="14" t="s">
@@ -4189,88 +4192,88 @@
       <c r="DG3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="DH3" s="22" t="s">
+      <c r="DH3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="DI3" s="22" t="s">
+      <c r="DI3" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="DJ3" s="22" t="s">
+      <c r="DJ3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="DK3" s="22" t="s">
+      <c r="DK3" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="DL3" s="22" t="s">
+      <c r="DL3" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="DM3" s="22" t="s">
+      <c r="DM3" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="DN3" s="22" t="s">
+      <c r="DN3" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="DO3" s="22" t="s">
+      <c r="DO3" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="DP3" s="22" t="s">
+      <c r="DP3" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="DQ3" s="22" t="s">
+      <c r="DQ3" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="DR3" s="22" t="s">
+      <c r="DR3" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="DS3" s="22" t="s">
+      <c r="DS3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="DT3" s="22" t="s">
+      <c r="DT3" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="DU3" s="22" t="s">
+      <c r="DU3" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="DV3" s="22" t="s">
+      <c r="DV3" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="DW3" s="22" t="s">
+      <c r="DW3" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="DX3" s="22" t="s">
+      <c r="DX3" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="DY3" s="22" t="s">
+      <c r="DY3" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="DZ3" s="22" t="s">
+      <c r="DZ3" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="EA3" s="22" t="s">
+      <c r="EA3" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="EB3" s="22" t="s">
+      <c r="EB3" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="EC3" s="22" t="s">
+      <c r="EC3" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="ED3" s="22" t="s">
+      <c r="ED3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="EE3" s="22" t="s">
+      <c r="EE3" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="EF3" s="22" t="s">
+      <c r="EF3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="EG3" s="22" t="s">
+      <c r="EG3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="EH3" s="22" t="s">
+      <c r="EH3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="EI3" s="30" t="s">
+      <c r="EI3" s="31" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4826,7 +4829,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED2="","",_6tuoliutuoxiao_day_hour!ED2)</f>
         <v/>
       </c>
-      <c r="EI4" s="31" t="str">
+      <c r="EI4" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE2="","",_6tuoliutuoxiao_day_hour!EE2)</f>
         <v/>
       </c>
@@ -5383,7 +5386,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED3="","",_6tuoliutuoxiao_day_hour!ED3)</f>
         <v/>
       </c>
-      <c r="EI5" s="31" t="str">
+      <c r="EI5" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE3="","",_6tuoliutuoxiao_day_hour!EE3)</f>
         <v/>
       </c>
@@ -5940,7 +5943,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED4="","",_6tuoliutuoxiao_day_hour!ED4)</f>
         <v/>
       </c>
-      <c r="EI6" s="31" t="str">
+      <c r="EI6" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE4="","",_6tuoliutuoxiao_day_hour!EE4)</f>
         <v/>
       </c>
@@ -6497,7 +6500,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED5="","",_6tuoliutuoxiao_day_hour!ED5)</f>
         <v/>
       </c>
-      <c r="EI7" s="31" t="str">
+      <c r="EI7" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE5="","",_6tuoliutuoxiao_day_hour!EE5)</f>
         <v/>
       </c>
@@ -7054,7 +7057,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED6="","",_6tuoliutuoxiao_day_hour!ED6)</f>
         <v/>
       </c>
-      <c r="EI8" s="31" t="str">
+      <c r="EI8" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE6="","",_6tuoliutuoxiao_day_hour!EE6)</f>
         <v/>
       </c>
@@ -7611,7 +7614,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED7="","",_6tuoliutuoxiao_day_hour!ED7)</f>
         <v/>
       </c>
-      <c r="EI9" s="31" t="str">
+      <c r="EI9" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE7="","",_6tuoliutuoxiao_day_hour!EE7)</f>
         <v/>
       </c>
@@ -8168,7 +8171,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED8="","",_6tuoliutuoxiao_day_hour!ED8)</f>
         <v/>
       </c>
-      <c r="EI10" s="31" t="str">
+      <c r="EI10" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE8="","",_6tuoliutuoxiao_day_hour!EE8)</f>
         <v/>
       </c>
@@ -8725,7 +8728,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED9="","",_6tuoliutuoxiao_day_hour!ED9)</f>
         <v/>
       </c>
-      <c r="EI11" s="31" t="str">
+      <c r="EI11" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE9="","",_6tuoliutuoxiao_day_hour!EE9)</f>
         <v/>
       </c>
@@ -9282,7 +9285,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED10="","",_6tuoliutuoxiao_day_hour!ED10)</f>
         <v/>
       </c>
-      <c r="EI12" s="31" t="str">
+      <c r="EI12" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE10="","",_6tuoliutuoxiao_day_hour!EE10)</f>
         <v/>
       </c>
@@ -9839,7 +9842,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED11="","",_6tuoliutuoxiao_day_hour!ED11)</f>
         <v/>
       </c>
-      <c r="EI13" s="31" t="str">
+      <c r="EI13" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE11="","",_6tuoliutuoxiao_day_hour!EE11)</f>
         <v/>
       </c>
@@ -10396,7 +10399,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED12="","",_6tuoliutuoxiao_day_hour!ED12)</f>
         <v/>
       </c>
-      <c r="EI14" s="31" t="str">
+      <c r="EI14" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE12="","",_6tuoliutuoxiao_day_hour!EE12)</f>
         <v/>
       </c>
@@ -10953,7 +10956,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED13="","",_6tuoliutuoxiao_day_hour!ED13)</f>
         <v/>
       </c>
-      <c r="EI15" s="31" t="str">
+      <c r="EI15" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE13="","",_6tuoliutuoxiao_day_hour!EE13)</f>
         <v/>
       </c>
@@ -11510,7 +11513,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED14="","",_6tuoliutuoxiao_day_hour!ED14)</f>
         <v/>
       </c>
-      <c r="EI16" s="31" t="str">
+      <c r="EI16" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE14="","",_6tuoliutuoxiao_day_hour!EE14)</f>
         <v/>
       </c>
@@ -12067,7 +12070,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED15="","",_6tuoliutuoxiao_day_hour!ED15)</f>
         <v/>
       </c>
-      <c r="EI17" s="31" t="str">
+      <c r="EI17" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE15="","",_6tuoliutuoxiao_day_hour!EE15)</f>
         <v/>
       </c>
@@ -12624,7 +12627,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED16="","",_6tuoliutuoxiao_day_hour!ED16)</f>
         <v/>
       </c>
-      <c r="EI18" s="31" t="str">
+      <c r="EI18" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE16="","",_6tuoliutuoxiao_day_hour!EE16)</f>
         <v/>
       </c>
@@ -13181,7 +13184,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED17="","",_6tuoliutuoxiao_day_hour!ED17)</f>
         <v/>
       </c>
-      <c r="EI19" s="31" t="str">
+      <c r="EI19" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE17="","",_6tuoliutuoxiao_day_hour!EE17)</f>
         <v/>
       </c>
@@ -13738,7 +13741,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED18="","",_6tuoliutuoxiao_day_hour!ED18)</f>
         <v/>
       </c>
-      <c r="EI20" s="31" t="str">
+      <c r="EI20" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE18="","",_6tuoliutuoxiao_day_hour!EE18)</f>
         <v/>
       </c>
@@ -14295,7 +14298,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED19="","",_6tuoliutuoxiao_day_hour!ED19)</f>
         <v/>
       </c>
-      <c r="EI21" s="31" t="str">
+      <c r="EI21" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE19="","",_6tuoliutuoxiao_day_hour!EE19)</f>
         <v/>
       </c>
@@ -14852,7 +14855,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED20="","",_6tuoliutuoxiao_day_hour!ED20)</f>
         <v/>
       </c>
-      <c r="EI22" s="31" t="str">
+      <c r="EI22" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE20="","",_6tuoliutuoxiao_day_hour!EE20)</f>
         <v/>
       </c>
@@ -15409,7 +15412,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED21="","",_6tuoliutuoxiao_day_hour!ED21)</f>
         <v/>
       </c>
-      <c r="EI23" s="31" t="str">
+      <c r="EI23" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE21="","",_6tuoliutuoxiao_day_hour!EE21)</f>
         <v/>
       </c>
@@ -15966,7 +15969,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED22="","",_6tuoliutuoxiao_day_hour!ED22)</f>
         <v/>
       </c>
-      <c r="EI24" s="31" t="str">
+      <c r="EI24" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE22="","",_6tuoliutuoxiao_day_hour!EE22)</f>
         <v/>
       </c>
@@ -16523,7 +16526,7 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED23="","",_6tuoliutuoxiao_day_hour!ED23)</f>
         <v/>
       </c>
-      <c r="EI25" s="31" t="str">
+      <c r="EI25" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE23="","",_6tuoliutuoxiao_day_hour!EE23)</f>
         <v/>
       </c>
@@ -17080,13 +17083,13 @@
         <f>IF(_6tuoliutuoxiao_day_hour!ED24="","",_6tuoliutuoxiao_day_hour!ED24)</f>
         <v/>
       </c>
-      <c r="EI26" s="31" t="str">
+      <c r="EI26" s="32" t="str">
         <f>IF(_6tuoliutuoxiao_day_hour!EE24="","",_6tuoliutuoxiao_day_hour!EE24)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:139">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="17"/>
@@ -17226,10 +17229,10 @@
       <c r="EF27" s="17"/>
       <c r="EG27" s="17"/>
       <c r="EH27" s="17"/>
-      <c r="EI27" s="31"/>
+      <c r="EI27" s="32"/>
     </row>
     <row r="28" spans="1:139">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="17"/>
@@ -17369,10 +17372,10 @@
       <c r="EF28" s="17"/>
       <c r="EG28" s="17"/>
       <c r="EH28" s="17"/>
-      <c r="EI28" s="31"/>
+      <c r="EI28" s="32"/>
     </row>
     <row r="29" spans="1:139">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B29" s="17"/>
@@ -17512,150 +17515,150 @@
       <c r="EF29" s="17"/>
       <c r="EG29" s="17"/>
       <c r="EH29" s="17"/>
-      <c r="EI29" s="31"/>
+      <c r="EI29" s="32"/>
     </row>
     <row r="30" ht="14.25" spans="1:139">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="21"/>
-      <c r="BG30" s="21"/>
-      <c r="BH30" s="21"/>
-      <c r="BI30" s="20"/>
-      <c r="BJ30" s="20"/>
-      <c r="BK30" s="20"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="20"/>
-      <c r="BN30" s="20"/>
-      <c r="BO30" s="20"/>
-      <c r="BP30" s="20"/>
-      <c r="BQ30" s="20"/>
-      <c r="BR30" s="20"/>
-      <c r="BS30" s="20"/>
-      <c r="BT30" s="20"/>
-      <c r="BU30" s="20"/>
-      <c r="BV30" s="20"/>
-      <c r="BW30" s="20"/>
-      <c r="BX30" s="20"/>
-      <c r="BY30" s="20"/>
-      <c r="BZ30" s="20"/>
-      <c r="CA30" s="20"/>
-      <c r="CB30" s="20"/>
-      <c r="CC30" s="20"/>
-      <c r="CD30" s="20"/>
-      <c r="CE30" s="20"/>
-      <c r="CF30" s="20"/>
-      <c r="CG30" s="20"/>
-      <c r="CH30" s="20"/>
-      <c r="CI30" s="20"/>
-      <c r="CJ30" s="20"/>
-      <c r="CK30" s="20"/>
-      <c r="CL30" s="20"/>
-      <c r="CM30" s="20"/>
-      <c r="CN30" s="20"/>
-      <c r="CO30" s="20"/>
-      <c r="CP30" s="20"/>
-      <c r="CQ30" s="20"/>
-      <c r="CR30" s="20"/>
-      <c r="CS30" s="20"/>
-      <c r="CT30" s="20"/>
-      <c r="CU30" s="20"/>
-      <c r="CV30" s="20"/>
-      <c r="CW30" s="20"/>
-      <c r="CX30" s="20"/>
-      <c r="CY30" s="20"/>
-      <c r="CZ30" s="20"/>
-      <c r="DA30" s="20"/>
-      <c r="DB30" s="20"/>
-      <c r="DC30" s="20"/>
-      <c r="DD30" s="20"/>
-      <c r="DE30" s="20"/>
-      <c r="DF30" s="20"/>
-      <c r="DG30" s="20"/>
-      <c r="DH30" s="20"/>
-      <c r="DI30" s="20"/>
-      <c r="DJ30" s="20"/>
-      <c r="DK30" s="20"/>
-      <c r="DL30" s="20"/>
-      <c r="DM30" s="20"/>
-      <c r="DN30" s="20"/>
-      <c r="DO30" s="20"/>
-      <c r="DP30" s="20"/>
-      <c r="DQ30" s="20"/>
-      <c r="DR30" s="20"/>
-      <c r="DS30" s="20"/>
-      <c r="DT30" s="20"/>
-      <c r="DU30" s="20"/>
-      <c r="DV30" s="20"/>
-      <c r="DW30" s="20"/>
-      <c r="DX30" s="20"/>
-      <c r="DY30" s="20"/>
-      <c r="DZ30" s="20"/>
-      <c r="EA30" s="20"/>
-      <c r="EB30" s="20"/>
-      <c r="EC30" s="20"/>
-      <c r="ED30" s="20"/>
-      <c r="EE30" s="20"/>
-      <c r="EF30" s="20"/>
-      <c r="EG30" s="20"/>
-      <c r="EH30" s="20"/>
-      <c r="EI30" s="32"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="22"/>
+      <c r="BF30" s="22"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="21"/>
+      <c r="BJ30" s="21"/>
+      <c r="BK30" s="21"/>
+      <c r="BL30" s="21"/>
+      <c r="BM30" s="21"/>
+      <c r="BN30" s="21"/>
+      <c r="BO30" s="21"/>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="21"/>
+      <c r="BR30" s="21"/>
+      <c r="BS30" s="21"/>
+      <c r="BT30" s="21"/>
+      <c r="BU30" s="21"/>
+      <c r="BV30" s="21"/>
+      <c r="BW30" s="21"/>
+      <c r="BX30" s="21"/>
+      <c r="BY30" s="21"/>
+      <c r="BZ30" s="21"/>
+      <c r="CA30" s="21"/>
+      <c r="CB30" s="21"/>
+      <c r="CC30" s="21"/>
+      <c r="CD30" s="21"/>
+      <c r="CE30" s="21"/>
+      <c r="CF30" s="21"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" s="21"/>
+      <c r="CI30" s="21"/>
+      <c r="CJ30" s="21"/>
+      <c r="CK30" s="21"/>
+      <c r="CL30" s="21"/>
+      <c r="CM30" s="21"/>
+      <c r="CN30" s="21"/>
+      <c r="CO30" s="21"/>
+      <c r="CP30" s="21"/>
+      <c r="CQ30" s="21"/>
+      <c r="CR30" s="21"/>
+      <c r="CS30" s="21"/>
+      <c r="CT30" s="21"/>
+      <c r="CU30" s="21"/>
+      <c r="CV30" s="21"/>
+      <c r="CW30" s="21"/>
+      <c r="CX30" s="21"/>
+      <c r="CY30" s="21"/>
+      <c r="CZ30" s="21"/>
+      <c r="DA30" s="21"/>
+      <c r="DB30" s="21"/>
+      <c r="DC30" s="21"/>
+      <c r="DD30" s="21"/>
+      <c r="DE30" s="21"/>
+      <c r="DF30" s="21"/>
+      <c r="DG30" s="21"/>
+      <c r="DH30" s="21"/>
+      <c r="DI30" s="21"/>
+      <c r="DJ30" s="21"/>
+      <c r="DK30" s="21"/>
+      <c r="DL30" s="21"/>
+      <c r="DM30" s="21"/>
+      <c r="DN30" s="21"/>
+      <c r="DO30" s="21"/>
+      <c r="DP30" s="21"/>
+      <c r="DQ30" s="21"/>
+      <c r="DR30" s="21"/>
+      <c r="DS30" s="21"/>
+      <c r="DT30" s="21"/>
+      <c r="DU30" s="21"/>
+      <c r="DV30" s="21"/>
+      <c r="DW30" s="21"/>
+      <c r="DX30" s="21"/>
+      <c r="DY30" s="21"/>
+      <c r="DZ30" s="21"/>
+      <c r="EA30" s="21"/>
+      <c r="EB30" s="21"/>
+      <c r="EC30" s="21"/>
+      <c r="ED30" s="21"/>
+      <c r="EE30" s="21"/>
+      <c r="EF30" s="21"/>
+      <c r="EG30" s="21"/>
+      <c r="EH30" s="21"/>
+      <c r="EI30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
